--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4004581.147623216</v>
+        <v>4006341.677926001</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -752,7 +752,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>96.25733914012379</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>58.29773957557538</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>135.5806565852696</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>253.8734885638445</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>212.568965117905</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.835079624349634</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>87.96049006335846</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888211</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>2.214688090590434</v>
+        <v>2.214688090590209</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.5491597882495</v>
+        <v>11.54915978824949</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>194.9747007711146</v>
+        <v>194.9747007711241</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.8390969161451</v>
+        <v>91.06264775161806</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115247</v>
+        <v>20.24979976115233</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>132.602666125637</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>195.7667673447298</v>
+        <v>195.7667673447332</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>157.1951996150707</v>
       </c>
       <c r="T13" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>55.49215756129713</v>
+        <v>55.49215756129669</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>164.9367233701397</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>103.5745801383503</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>95.12712756824217</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187869</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881273</v>
       </c>
       <c r="V26" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>31.26260713376613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569552</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174131</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="30">
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>180.1003471321693</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3043,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.4774956074566125</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,16 +3483,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>117.4665281367395</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>168.4805514670954</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>168.4805514670954</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
-        <v>21.8567702508366</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4330,16 +4330,16 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030601</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
         <v>704.5463761991316</v>
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>326.869123378691</v>
+        <v>424.0987588737656</v>
       </c>
       <c r="C3" t="n">
-        <v>326.869123378691</v>
+        <v>424.0987588737656</v>
       </c>
       <c r="D3" t="n">
-        <v>326.869123378691</v>
+        <v>424.0987588737656</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6316683732355</v>
+        <v>264.8613038683101</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>118.326745895195</v>
       </c>
       <c r="G3" t="n">
         <v>21.09711040012049</v>
@@ -4409,25 +4409,25 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957468</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4439,22 +4439,22 @@
         <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>839.7105578442523</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>839.7105578442523</v>
       </c>
       <c r="V3" t="n">
-        <v>801.367527981072</v>
+        <v>839.7105578442523</v>
       </c>
       <c r="W3" t="n">
-        <v>742.4809223491777</v>
+        <v>839.7105578442523</v>
       </c>
       <c r="X3" t="n">
-        <v>534.6294221436449</v>
+        <v>631.8590576387195</v>
       </c>
       <c r="Y3" t="n">
-        <v>326.869123378691</v>
+        <v>424.0987588737656</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.09711040012049</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="C4" t="n">
-        <v>21.09711040012049</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="D4" t="n">
-        <v>21.09711040012049</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="E4" t="n">
-        <v>21.09711040012049</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="F4" t="n">
         <v>21.09711040012049</v>
@@ -4491,19 +4491,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287944</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551007</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227044</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4518,22 +4518,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>917.9053618390856</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>917.9053618390856</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>917.9053618390856</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W4" t="n">
-        <v>651.5277052719076</v>
+        <v>798.417652769818</v>
       </c>
       <c r="X4" t="n">
-        <v>423.5381543738903</v>
+        <v>570.4281018718007</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.7455752303602</v>
+        <v>349.6355227282705</v>
       </c>
     </row>
     <row r="5">
@@ -4558,31 +4558,31 @@
         <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515912</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030611</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991323</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358418</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4606,10 +4606,10 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>840.1393936243026</v>
+        <v>840.1393936243022</v>
       </c>
       <c r="X5" t="n">
-        <v>573.7617370571245</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="Y5" t="n">
         <v>307.3840804899464</v>
@@ -4631,67 +4631,67 @@
         <v>180.334565405576</v>
       </c>
       <c r="E6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957459</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298712</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>433.126243926395</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>643.1802110289999</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>813.1187583557296</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891336</v>
+        <v>930.176358389133</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1044.921096143045</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>1044.921096143045</v>
       </c>
       <c r="T6" t="n">
-        <v>966.0065401440465</v>
+        <v>1044.921096143045</v>
       </c>
       <c r="U6" t="n">
-        <v>966.0065401440465</v>
+        <v>816.7852501798586</v>
       </c>
       <c r="V6" t="n">
-        <v>730.8544319123039</v>
+        <v>816.7852501798586</v>
       </c>
       <c r="W6" t="n">
-        <v>730.8544319123039</v>
+        <v>562.5478934516569</v>
       </c>
       <c r="X6" t="n">
-        <v>523.0029317067711</v>
+        <v>562.5478934516569</v>
       </c>
       <c r="Y6" t="n">
-        <v>523.0029317067711</v>
+        <v>354.787594686703</v>
       </c>
     </row>
     <row r="7">
@@ -4713,34 +4713,34 @@
         <v>183.2115014322552</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434485</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434485</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434485</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434482</v>
+        <v>36.32155393434485</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4786,67 +4786,67 @@
         <v>1217.916929169387</v>
       </c>
       <c r="D8" t="n">
-        <v>859.6512305626361</v>
+        <v>859.6512305626363</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8629779643919</v>
+        <v>473.8629779643921</v>
       </c>
       <c r="F8" t="n">
-        <v>62.87707317478432</v>
+        <v>62.87707317478451</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467168</v>
+        <v>187.3702251467175</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607413</v>
+        <v>442.1757437607432</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045911</v>
+        <v>795.186282904594</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995224</v>
+        <v>1219.647962995228</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.59168520958</v>
+        <v>1655.591685209586</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940591</v>
+        <v>2053.905718940598</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550192</v>
+        <v>2359.356530550201</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661158</v>
+        <v>2540.564622661167</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342777</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342777</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342777</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342777</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="V8" t="n">
-        <v>2363.618618149731</v>
+        <v>2363.618618149732</v>
       </c>
       <c r="W8" t="n">
-        <v>2363.618618149731</v>
+        <v>2363.618618149732</v>
       </c>
       <c r="X8" t="n">
-        <v>2363.618618149731</v>
+        <v>2363.618618149732</v>
       </c>
       <c r="Y8" t="n">
         <v>1973.47928617392</v>
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965631</v>
+        <v>929.5097208010814</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154361</v>
+        <v>755.0566915199544</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541848</v>
+        <v>606.1222818587031</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487294</v>
+        <v>446.8848268532476</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801326</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763208</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993884</v>
+        <v>71.6655983999389</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637183</v>
+        <v>113.4887579637189</v>
       </c>
       <c r="K9" t="n">
-        <v>506.4581980381321</v>
+        <v>506.4581980381367</v>
       </c>
       <c r="L9" t="n">
-        <v>800.9941814716128</v>
+        <v>800.9941814716183</v>
       </c>
       <c r="M9" t="n">
-        <v>1164.060649945913</v>
+        <v>1164.06064994592</v>
       </c>
       <c r="N9" t="n">
-        <v>1551.145052418482</v>
+        <v>1551.14505241849</v>
       </c>
       <c r="O9" t="n">
-        <v>1883.03186240587</v>
+        <v>1883.031862405879</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789032</v>
+        <v>2445.345361789041</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342777</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342777</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.620673347184</v>
+        <v>2424.826280251702</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610870780833</v>
+        <v>2230.816477685351</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2002.72632175158</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368606615319</v>
+        <v>1767.574213519838</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.336856791636</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586103</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821149</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.1771711294913</v>
+        <v>518.1771711294915</v>
       </c>
       <c r="C10" t="n">
-        <v>349.2409882015844</v>
+        <v>349.2409882015846</v>
       </c>
       <c r="D10" t="n">
-        <v>199.1243487892486</v>
+        <v>199.1243487892488</v>
       </c>
       <c r="E10" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685553</v>
+        <v>51.21125520685573</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380115</v>
+        <v>76.63468308380163</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676561</v>
+        <v>248.250021567657</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368909</v>
+        <v>523.3850043368923</v>
       </c>
       <c r="M10" t="n">
-        <v>823.865389990402</v>
+        <v>823.865389990404</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101611</v>
+        <v>1122.635640101613</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931089</v>
+        <v>1382.582027931092</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616497</v>
+        <v>1581.490387616501</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.76914547736</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.76914547736</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.76914547736</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.76914547736</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.76914547736</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="V10" t="n">
-        <v>1438.024936038239</v>
+        <v>1438.02493603824</v>
       </c>
       <c r="W10" t="n">
-        <v>1148.607766001278</v>
+        <v>1148.607766001279</v>
       </c>
       <c r="X10" t="n">
-        <v>920.6182151032612</v>
+        <v>920.6182151032614</v>
       </c>
       <c r="Y10" t="n">
-        <v>699.825635959731</v>
+        <v>699.8256359597312</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,7 +5029,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5041,7 +5041,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5050,31 +5050,31 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5132,16 +5132,16 @@
         <v>738.7889117913853</v>
       </c>
       <c r="N12" t="n">
-        <v>1366.386875345992</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2221.13434991845</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>2001.532884941391</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1712.457658285589</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1457.773170079702</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1168.356000042741</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>940.366449144724</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>719.5738700011939</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5363,16 +5363,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>315.9123021921476</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898186995</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373306</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612593</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
         <v>2516.421633107662</v>
@@ -5412,52 +5412,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
@@ -5475,7 +5475,7 @@
         <v>1849.578742244367</v>
       </c>
       <c r="W16" t="n">
-        <v>1560.161572207406</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X16" t="n">
         <v>1332.172021309389</v>
@@ -5494,70 +5494,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>948.5505208511905</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232836</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2342.342295561725</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2122.740830584667</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1833.665603928865</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1578.981115722978</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1578.981115722978</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X19" t="n">
-        <v>1350.99156482496</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y19" t="n">
-        <v>1130.19898568143</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="20">
@@ -5746,55 +5746,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5983,46 +5983,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6080,7 +6080,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6217,58 +6217,58 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6317,7 +6317,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098242</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4194208819173</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>664.3027814695815</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>516.3896878871884</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,28 +6478,28 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852889</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6554,7 +6554,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>634.9279362553159</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.997837274916</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1978.396372297858</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6685,37 +6685,37 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111707</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6727,10 +6727,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6739,10 +6739,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6791,7 +6791,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1099.149479058937</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6979,7 +6979,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7022,16 +7022,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2515.675093211831</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7265,7 +7265,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,19 +7408,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192497</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7438,16 +7438,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
         <v>3467.980956852889</v>
@@ -7502,7 +7502,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7627,16 +7627,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,37 +7660,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7739,7 +7739,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>801.6918836311994</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>801.6918836311994</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>983.3403484614391</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127223</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446522</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8157,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837775129</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761156</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418294</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127245</v>
+        <v>97.32166909127285</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>210.4772158821364</v>
+        <v>210.4772158821397</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348528</v>
+        <v>20.98618304348501</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>23.83108638657384</v>
       </c>
       <c r="T13" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>125.5341284403475</v>
+        <v>125.5341284403479</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.5874149221291134</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>77.45170586329428</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>72.11969353038566</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>114.1584408891651</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0.9259388694752602</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.3544845744807</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>101.1181252153553</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>57.2291039219418</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>57.2291039219418</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
-        <v>126.7587027673758</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>613899.1652776771</v>
+        <v>613899.165277677</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>613899.1652776771</v>
+        <v>613899.165277677</v>
       </c>
     </row>
     <row r="12">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
         <v>807146.599690006</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900065</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.599690006</v>
       </c>
       <c r="H2" t="n">
         <v>807146.599690006</v>
@@ -26337,25 +26337,25 @@
         <v>807146.599690006</v>
       </c>
       <c r="J2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="K2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="L2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="M2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="N2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="O2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.5996900063</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580772</v>
+        <v>390680.0076580798</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606949</v>
+        <v>507909.2320606927</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911395</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.085185663982602e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101719</v>
+        <v>95270.23779101786</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954694</v>
+        <v>132717.9756954687</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.87289297653052e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>248543.2666865467</v>
       </c>
       <c r="D4" t="n">
-        <v>136854.4547662843</v>
+        <v>136854.4547662836</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756548</v>
+        <v>9337.200356756684</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.20035675655</v>
+        <v>9337.200356756653</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756623</v>
       </c>
       <c r="M4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756552</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567883</v>
+        <v>92902.86757567903</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-170637.2806177228</v>
+        <v>-170637.2806177227</v>
       </c>
       <c r="C6" t="n">
-        <v>509450.6999734702</v>
+        <v>509450.6999734706</v>
       </c>
       <c r="D6" t="n">
-        <v>200604.4398642432</v>
+        <v>200604.4398642406</v>
       </c>
       <c r="E6" t="n">
-        <v>188430.2581942905</v>
+        <v>188742.8995232139</v>
       </c>
       <c r="F6" t="n">
-        <v>696339.4902549855</v>
+        <v>696652.1315839074</v>
       </c>
       <c r="G6" t="n">
-        <v>696339.4902549856</v>
+        <v>696652.1315839067</v>
       </c>
       <c r="H6" t="n">
-        <v>696339.4902549854</v>
+        <v>696652.1315839067</v>
       </c>
       <c r="I6" t="n">
-        <v>696339.4902549854</v>
+        <v>696652.1315839067</v>
       </c>
       <c r="J6" t="n">
-        <v>627340.3358358718</v>
+        <v>627652.9771647926</v>
       </c>
       <c r="K6" t="n">
-        <v>696339.4902549856</v>
+        <v>696652.1315839067</v>
       </c>
       <c r="L6" t="n">
-        <v>601069.2524639687</v>
+        <v>601381.8937928888</v>
       </c>
       <c r="M6" t="n">
-        <v>563621.5145595162</v>
+        <v>563934.1558884382</v>
       </c>
       <c r="N6" t="n">
-        <v>696339.4902549855</v>
+        <v>696652.1315839069</v>
       </c>
       <c r="O6" t="n">
-        <v>696339.4902549855</v>
+        <v>696652.1315839067</v>
       </c>
       <c r="P6" t="n">
-        <v>696339.4902549859</v>
+        <v>696652.1315839071</v>
       </c>
     </row>
   </sheetData>
@@ -26709,13 +26709,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627814</v>
+        <v>933.7024595627835</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856941</v>
+        <v>640.1406900856966</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,19 +26804,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.606482079978252e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933031</v>
+        <v>319.6474457933053</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788923</v>
+        <v>434.2730407788905</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>-4.174621079127816e-14</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841879</v>
+        <v>376.4268100841904</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139542</v>
+        <v>532.5675980139517</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841877</v>
+        <v>376.4268100841905</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139542</v>
+        <v>532.5675980139517</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.606482079978252e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841879</v>
+        <v>376.4268100841904</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139542</v>
+        <v>532.5675980139517</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27472,13 +27472,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>39.76538044629966</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27511,16 +27511,16 @@
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>193.3972435853442</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -27560,7 +27560,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27590,7 +27590,7 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>87.63368929429626</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>32.64950977274651</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>136.672003599508</v>
+        <v>136.6720035995079</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769628</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y5" t="n">
         <v>122.5240586545474</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27712,10 +27712,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>8.317445330928065</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>106.8804975215183</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27794,7 +27794,7 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>223.4949672984467</v>
+        <v>223.4949672984469</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203005</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465059</v>
+        <v>65.76608425465025</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348408</v>
+        <v>123.4854171348406</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
@@ -27912,7 +27912,7 @@
         <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>132.7775576990203</v>
+        <v>132.7775576990108</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27949,7 +27949,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1.776449164526994</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.776449164536899</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590396</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430996</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640955</v>
+        <v>101.5869591640953</v>
       </c>
       <c r="S10" t="n">
         <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>56.37087597909817</v>
+        <v>56.37087597909479</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,19 +29325,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.313116282375404e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
     </row>
     <row r="30">
@@ -29763,10 +29763,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,19 +29799,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.16927002350879</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167917</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R5" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702306</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990947</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736543</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944813</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.0868945774202092</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,22 +31436,22 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582787</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244974</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779067</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M7" t="n">
         <v>173.576239384051</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.7223070791912</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350554</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.73124354871565</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885551</v>
+        <v>3.753577726885559</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546666</v>
+        <v>38.44132789546674</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157553</v>
+        <v>144.7098053157557</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972528</v>
+        <v>318.5802175972535</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763182</v>
+        <v>477.4691627763193</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354921</v>
+        <v>592.3427171354933</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359929</v>
+        <v>659.0954050359944</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525065</v>
+        <v>669.760257752508</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307883</v>
+        <v>632.4356192307897</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983012</v>
+        <v>539.7691690983024</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542123</v>
+        <v>405.3441667542132</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864747</v>
+        <v>235.7856768864752</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140457</v>
+        <v>85.53465245140475</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944151</v>
+        <v>16.43128649944154</v>
       </c>
       <c r="U8" t="n">
-        <v>0.300286218150844</v>
+        <v>0.3002862181508447</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436926</v>
+        <v>2.008341139436931</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035137</v>
+        <v>19.39634732035141</v>
       </c>
       <c r="I9" t="n">
-        <v>69.1468330902626</v>
+        <v>69.14683309026275</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079423</v>
+        <v>189.7441951079427</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502163</v>
+        <v>324.303051450217</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571274</v>
+        <v>436.0654741571283</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617158</v>
+        <v>508.8678404617169</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152206</v>
+        <v>522.3360580152217</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519076</v>
+        <v>477.8354464519086</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947583</v>
+        <v>383.5050724947592</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463698</v>
+        <v>256.3629847463703</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204787</v>
+        <v>124.6933209204789</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366393</v>
+        <v>37.30405581366401</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133922</v>
+        <v>8.09502415413394</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419031</v>
+        <v>0.1321277065419034</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752556</v>
+        <v>1.68372574675256</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840001</v>
+        <v>14.96985254840005</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415872</v>
+        <v>50.63422518415882</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954057</v>
+        <v>119.039410295406</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772515</v>
+        <v>195.618318577252</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490119</v>
+        <v>250.3240987490125</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023121</v>
+        <v>263.9316641023127</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462346</v>
+        <v>257.6559590462351</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046251</v>
+        <v>237.9869810046256</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708727</v>
+        <v>203.6389757708732</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.98907139398</v>
+        <v>140.9890713939803</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307402</v>
+        <v>75.70643221307418</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658773</v>
+        <v>29.34274778658779</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942739</v>
+        <v>7.194100917942755</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650319</v>
+        <v>0.09183958618650338</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31846,34 +31846,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>742.9354859824765</v>
       </c>
       <c r="O12" t="n">
-        <v>640.7275049411307</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32083,19 +32083,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>211.7351844430268</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33742,19 +33742,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877686</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966403</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496654</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217703</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664461</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186564</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441511</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117352</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763041</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877689</v>
+        <v>125.9385470877692</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35111,10 +35111,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496811</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705665</v>
+        <v>137.5343130705672</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313377</v>
+        <v>257.3793117313388</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655048</v>
+        <v>356.5763021655061</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087202</v>
+        <v>428.7491718087217</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559156</v>
+        <v>440.3471941559171</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091016</v>
+        <v>402.337407809103</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430316</v>
+        <v>308.5361733430329</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797628</v>
+        <v>183.0384768797637</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234255</v>
+        <v>20.20013907234306</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127557</v>
+        <v>62.90656844127597</v>
       </c>
       <c r="K9" t="n">
-        <v>396.9388283579937</v>
+        <v>396.9388283579977</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772532</v>
+        <v>297.5110943772542</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396975</v>
+        <v>366.7338065396986</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318873</v>
+        <v>390.9943459318885</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074631</v>
+        <v>335.2392020074642</v>
       </c>
       <c r="P9" t="n">
-        <v>567.9934337203653</v>
+        <v>567.9934337203661</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603482</v>
+        <v>116.3812106603488</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873296</v>
+        <v>25.68023017873323</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513687</v>
+        <v>173.3488267513691</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093281</v>
+        <v>277.9141240093286</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641527</v>
+        <v>303.5155410641532</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254631</v>
+        <v>301.7881314254637</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186648</v>
+        <v>262.5721089186653</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357662</v>
+        <v>200.9175350357667</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228561</v>
+        <v>54.82702814228593</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,25 +35494,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>611.5937738991432</v>
       </c>
       <c r="O12" t="n">
-        <v>498.1312604966863</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>73.1808046631526</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367765</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
